--- a/results/I3_N5_M2_T45_C200_DepCentral_s3_P2_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s3_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.33079697741609</v>
+        <v>1079.84034320198</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.957840319717379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.94333144582801</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>22.82218000304263</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>25.92773953394843</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.92773953394845</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.79579898937524</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.33301651610694</v>
+        <v>35.4627824732683</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.27634796193495</v>
+        <v>38.42062279298568</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.53978881378947</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>197.0099999999993</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>195.0249999999993</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>192.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>192.2299999999993</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>190.9899999999992</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.295000000001</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.910000000001</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.085000000001</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.295000000001</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.910000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.085000000001</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>197.0099999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>195.0249999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>192.2299999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>190.9899999999992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +2108,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
